--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_09-20.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_09-20.xlsx
@@ -39,6 +39,39 @@
   </si>
   <si>
     <t>0:2</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>Saturday, 17 January, 2026 9:20 AM</t>
@@ -644,38 +677,168 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" ht="26.25" customHeight="1">
-      <c r="K5" s="10">
+    <row r="5" ht="25.5" customHeight="1">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c t="s" r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c t="s" r="H5" s="8">
+        <v>8</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9">
+        <v>95</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c t="s" r="N5" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c t="s" r="B6" s="7">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c t="s" r="H6" s="8">
+        <v>13</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c t="s" r="N6" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="25.5" customHeight="1">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c t="s" r="B7" s="7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c t="s" r="H7" s="8">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c t="s" r="N7" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" customHeight="1">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c t="s" r="B8" s="7">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c t="s" r="H8" s="8">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9">
+        <v>15</v>
+      </c>
+      <c r="M8" s="9"/>
+      <c t="s" r="N8" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c t="s" r="B9" s="7">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c t="s" r="H9" s="8">
         <v>19</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c t="s" r="A6" s="11">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c t="s" r="F6" s="12">
-        <v>11</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c t="s" r="I6" s="14">
-        <v>12</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9">
+        <v>48</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c t="s" r="N9" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="26.25" customHeight="1">
+      <c r="K10" s="10">
+        <v>199</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="11">
+        <v>21</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c t="s" r="F11" s="12">
+        <v>22</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c t="s" r="I11" s="14">
+        <v>23</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="29">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -686,10 +849,25 @@
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:N11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
